--- a/static/files/emp_info.xlsx
+++ b/static/files/emp_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desicrew\flask\Dmax\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655E256-8FE0-488D-A477-638A14F1F5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCF3B1D-4449-4800-B427-B9251D1DFE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{775C77EE-6D07-4A45-8589-60E62CA519F5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Employee Name</t>
   </si>
@@ -57,19 +57,22 @@
     <t>Reporting Manager</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DC123</t>
-  </si>
-  <si>
-    <t>test@qaoncloud.com</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>main</t>
+    <t>Akyrian</t>
+  </si>
+  <si>
+    <t>Jr.QA Engineer</t>
+  </si>
+  <si>
+    <t>test_2@qaoncloud.com</t>
+  </si>
+  <si>
+    <t>DC1981</t>
+  </si>
+  <si>
+    <t>Test_4</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -513,10 +516,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -525,18 +528,18 @@
         <v>45235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{067376BA-CDBC-4652-A138-39CCDABA98EC}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{92BB4D69-75B3-4A83-AC2F-DEDEAE4973E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
